--- a/src/integration-test/resources/multiDataModelImport.simple.xlsx
+++ b/src/integration-test/resources/multiDataModelImport.simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjl/code/maurodatamapper-plugins/mdm-plugin-excel/src/integration-test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693BC0E-8F5F-C543-A069-15AC69FE7911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06908AE9-4895-6946-AA05-388C842C9D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataModels" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1803,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B77EEB2-85A6-F74B-A01A-DC83D99E5E61}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1859,6 +1859,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1869,10 +1875,24 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1883,10 +1903,10 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1895,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>145</v>
@@ -1910,23 +1930,18 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1934,19 +1949,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1958,14 +1970,23 @@
       <c r="A7" t="s">
         <v>94</v>
       </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1978,10 +1999,10 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1990,10 +2011,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2006,10 +2024,7 @@
         <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2018,7 +2033,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2031,7 +2049,10 @@
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2040,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2056,10 +2077,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2068,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2084,7 +2102,10 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2093,10 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2106,22 +2124,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2133,11 +2139,22 @@
       <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
-        <v>112</v>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2147,7 +2164,7 @@
         <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2156,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
@@ -2168,25 +2185,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
@@ -2194,14 +2202,26 @@
       <c r="A17" t="s">
         <v>117</v>
       </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
@@ -2210,10 +2230,10 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2222,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>145</v>
@@ -2237,10 +2257,7 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2249,11 +2266,9 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2264,16 +2279,16 @@
         <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2283,19 +2298,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2307,6 +2310,21 @@
       <c r="A22" t="s">
         <v>121</v>
       </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -2318,19 +2336,16 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2343,18 +2358,20 @@
         <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -2365,7 +2382,7 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2374,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>147</v>
@@ -2389,19 +2406,19 @@
         <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2413,7 +2430,7 @@
         <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2422,7 +2439,7 @@
         <v>-1</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>148</v>
@@ -2437,20 +2454,21 @@
         <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2458,22 +2476,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2485,10 +2488,27 @@
       <c r="A30" t="s">
         <v>130</v>
       </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2496,10 +2516,10 @@
         <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2508,104 +2528,77 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
         <v>120</v>
       </c>
     </row>
